--- a/data/Isauro MolinosT2-2024.xlsx
+++ b/data/Isauro MolinosT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>37.15546372</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1468,6 +1470,7 @@
         <v>0.00139037</v>
       </c>
     </row>
+    <row r="61"/>
     <row r="62">
       <c r="D62" s="6" t="inlineStr">
         <is>
@@ -1493,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,6 +1509,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1513,6 +1518,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1520,6 +1526,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1824,6 +1831,7 @@
         <v>5.82e-06</v>
       </c>
     </row>
+    <row r="31"/>
     <row r="32">
       <c r="C32" s="6" t="inlineStr">
         <is>
@@ -1849,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1862,6 +1870,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1869,6 +1879,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1876,6 +1887,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1959,6 +1971,7 @@
         <v>0.0001407</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
